--- a/Argentina Cars Prices - Pivot Tables.xlsx
+++ b/Argentina Cars Prices - Pivot Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guzman Projects\Excel\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F729412C-54DA-4265-8550-ACBE20954E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5ED73414-605F-44EF-88E7-BCE08F0224B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4625" uniqueCount="283">
   <si>
     <t>money</t>
   </si>
@@ -890,6 +890,9 @@
   <si>
     <t>CAR PRICES IN ARGENTINA (2022)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -1054,7 +1057,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1252,6 +1255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1413,7 +1422,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1425,6 +1434,8 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1470,7 +1481,115 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Abadi"/>
@@ -1944,13 +2063,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1989,7 +2108,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6886575" y="771525"/>
+              <a:off x="8496300" y="771525"/>
               <a:ext cx="2952750" cy="1581150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2022,13 +2141,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
@@ -2067,7 +2186,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3067050" y="828674"/>
+              <a:off x="4676775" y="828674"/>
               <a:ext cx="3028950" cy="1304925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2099,13 +2218,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
@@ -11232,7 +11351,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica14" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
-  <location ref="D12:F72" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <location ref="E12:G72" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="17">
     <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -11566,19 +11685,19 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="3" baseItem="14" numFmtId="164"/>
   </dataFields>
   <formats count="25">
-    <format dxfId="74">
+    <format dxfId="92">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="90">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="89">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="18">
@@ -11604,10 +11723,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11620,7 +11739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11633,7 +11752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11645,7 +11764,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11659,7 +11778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11671,7 +11790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11685,7 +11804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11699,7 +11818,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11713,7 +11832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11727,7 +11846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11739,7 +11858,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11751,7 +11870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11763,7 +11882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11777,7 +11896,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11791,7 +11910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11805,7 +11924,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11819,7 +11938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11833,7 +11952,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -11846,7 +11965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11881,7 +12000,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica13" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L23:M27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M23:N27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -12251,16 +12370,16 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="48">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="64">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="3">
@@ -12271,10 +12390,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12292,7 +12411,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica12" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O12:P15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="P12:Q15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -12651,26 +12770,26 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="41">
+    <format dxfId="59">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="57">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12688,7 +12807,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica11" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L12:M20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M12:N20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -13056,16 +13175,16 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="34">
+    <format dxfId="52">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="50">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="7">
@@ -13080,10 +13199,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13101,7 +13220,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica10" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O5:P8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="P5:Q8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -13411,16 +13530,16 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="27">
+    <format dxfId="45">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="43">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="2">
@@ -13430,10 +13549,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13451,7 +13570,7 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica9" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L5:M9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M5:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -13757,16 +13876,16 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="20">
+    <format dxfId="38">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="36">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="3">
@@ -13777,10 +13896,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13798,7 +13917,7 @@
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica8" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I13:J29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J13:K29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0" sortType="descending">
@@ -14141,16 +14260,16 @@
     <dataField name="Price" fld="14" subtotal="average" baseField="1" baseItem="6" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="13">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="29">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="15">
@@ -14173,10 +14292,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14194,7 +14313,7 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica5" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A4:C25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0" rankBy="0"/>
@@ -14344,23 +14463,32 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Price" fld="14" subtotal="average" baseField="1" baseItem="6" numFmtId="164"/>
+    <dataField name=" " fld="14" subtotal="average" baseField="16" baseItem="17"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="6">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="22">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="16" count="20">
@@ -14388,13 +14516,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat scope="data" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight18" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -14467,7 +14608,7 @@
     <tableColumn id="2" name="brand"/>
     <tableColumn id="3" name="model"/>
     <tableColumn id="4" name="year"/>
-    <tableColumn id="16" name="fecha" dataDxfId="75">
+    <tableColumn id="16" name="fecha" dataDxfId="93">
       <calculatedColumnFormula>DATE(Tabla1[[#This Row],[year]],1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="color"/>
@@ -14479,7 +14620,7 @@
     <tableColumn id="11" name="kilometres"/>
     <tableColumn id="12" name="currency"/>
     <tableColumn id="13" name="exchange_rate"/>
-    <tableColumn id="15" name="money (dollars)" dataDxfId="76">
+    <tableColumn id="15" name="money (dollars)" dataDxfId="94">
       <calculatedColumnFormula>IF(Tabla1[[#This Row],[currency]]="pesos",Tabla1[[#This Row],[money]]/Tabla1[[#This Row],[exchange_rate]],Tabla1[[#This Row],[money]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -39792,37 +39933,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="32" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>281</v>
       </c>
@@ -39841,920 +39983,1041 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>250</v>
       </c>
       <c r="B5" s="7">
         <v>10000</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="C5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="M5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B6" s="7">
         <v>11212.051517939282</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="C6" s="9">
+        <v>11212.051517939282</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="M6" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>45187.183762649496</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>31809.881938055816</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B7" s="7">
         <v>16300</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="C7" s="9">
+        <v>16300</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="M7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
         <v>21146.473877886998</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>18256.158642543189</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B8" s="7">
         <v>16000</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="C8" s="9">
+        <v>16000</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="M8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>16672.799754676482</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>22242.547847105721</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="7">
         <v>18111.775528978844</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="C9" s="9">
+        <v>18111.775528978844</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="M9" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>22242.547847105725</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B10" s="7">
         <v>13606.862005519781</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>13606.862005519781</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B11" s="7">
         <v>14436.0625574977</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="C11" s="9">
+        <v>14436.0625574977</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="M11" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="5"/>
+      <c r="P11" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B12" s="7">
         <v>24970.337757918256</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="9">
+        <v>24970.337757918256</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B13" s="7">
         <v>26267.016392071593</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="9">
+        <v>26267.016392071593</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="I13" s="4" t="s">
+      <c r="G13" s="7"/>
+      <c r="J13" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N13" s="7">
         <v>53989.765409383632</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>38500</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B14" s="7">
         <v>15239.442589915452</v>
       </c>
-      <c r="E14" s="3">
+      <c r="C14" s="9">
+        <v>15239.442589915452</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" s="3">
         <v>2018</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>68000</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>9487.1205151793929</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>47416.245016865993</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7">
         <v>21917.398804047833</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B15" s="7">
         <v>17219.12711726825</v>
       </c>
-      <c r="E15" s="3">
+      <c r="C15" s="9">
+        <v>17219.12711726825</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="F15" s="3">
         <v>2020</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>430000</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>10931.750229990801</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>45106.94572217112</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>22242.547847105714</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="7">
         <v>17532.062322158279</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="9">
+        <v>17532.062322158279</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="7"/>
+      <c r="J16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>13103.725850965962</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M16" s="7">
+      <c r="N16" s="7">
         <v>38500</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B17" s="7">
         <v>22843.683562334929</v>
       </c>
-      <c r="E17" s="3">
+      <c r="C17" s="9">
+        <v>22843.683562334929</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="3">
         <v>2018</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>53185.3725850966</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>6899.7240110395587</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N17" s="7">
         <v>21944.202589039302</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B18" s="7">
         <v>23319.69403412543</v>
       </c>
-      <c r="E18" s="3">
+      <c r="C18" s="9">
+        <v>23319.69403412543</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" s="3">
         <v>2019</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>185000</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>19804.507819687216</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
         <v>17601.461326162338</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B19" s="7">
         <v>30643.179504711705</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="9">
+        <v>30643.179504711705</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="7"/>
+      <c r="J19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>24522.194112235513</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N19" s="7">
         <v>11140.179392824288</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B20" s="7">
         <v>30734.490935441961</v>
       </c>
-      <c r="E20" s="3">
+      <c r="C20" s="9">
+        <v>30734.490935441961</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="F20" s="3">
         <v>2018</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>51901.257283042018</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>53989.765409383632</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="M20" s="7">
+      <c r="N20" s="7">
         <v>22242.547847105725</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>266</v>
       </c>
       <c r="B21" s="7">
         <v>37819.846995593849</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="9">
+        <v>37819.846995593849</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="I21" s="6" t="s">
+      <c r="G21" s="7"/>
+      <c r="J21" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>11787.028518859246</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B22" s="7">
         <v>53691.236925907586</v>
       </c>
-      <c r="E22" s="3">
+      <c r="C22" s="9">
+        <v>53691.236925907586</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="F22" s="3">
         <v>2018</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>31161.683532658695</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>18904.620898497396</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>268</v>
       </c>
       <c r="B23" s="7">
         <v>51656.637357582636</v>
       </c>
-      <c r="E23" s="3">
+      <c r="C23" s="9">
+        <v>51656.637357582636</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="F23" s="3">
         <v>2019</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>47563.227825053669</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>17943.30726770929</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>269</v>
       </c>
       <c r="B24" s="7">
         <v>55293.678458922252</v>
       </c>
-      <c r="E24" s="3">
+      <c r="C24" s="9">
+        <v>55293.678458922252</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="F24" s="3">
         <v>2020</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>39040.881018092616</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>31020.009199632019</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M24" s="7">
+      <c r="N24" s="7">
         <v>9544.61821527139</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B25" s="7">
         <v>30513.368565669127</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="9">
+        <v>30513.368565669127</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="I25" s="6" t="s">
+      <c r="G25" s="7"/>
+      <c r="J25" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>14374.425022999081</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="7">
+      <c r="N25" s="7">
         <v>19913.861258049681</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
         <v>2020</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>41900</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>18954.883471327816</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="7">
+      <c r="N26" s="7">
         <v>25082.893135887472</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="I27" s="6" t="s">
+      <c r="G27" s="7"/>
+      <c r="J27" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>32822.644237087661</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="M27" s="7">
+      <c r="N27" s="7">
         <v>22242.547847105714</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
         <v>2018</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <v>33715.386384544618</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>59354.358325666974</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
         <v>2019</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>47723.091076356948</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>22242.547847105721</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
         <v>2020</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>48815.547378104879</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="3" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="3">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
         <v>2018</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>38523.459061637535</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
         <v>2019</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="7">
         <v>39615.627874885009</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
         <v>2020</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="3" t="s">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="3">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
         <v>2018</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>29528.518859245636</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
         <v>2019</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>22768.945492180312</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
         <v>2020</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>61648.401563937448</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="3">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
         <v>2018</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>34055.88768234985</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
         <v>2019</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>38314.139451088624</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
         <v>2020</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>26390.869365225393</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="3" t="s">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="3">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
         <v>2020</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>34441.122355105799</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="3" t="s">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="3">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
         <v>2019</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>33866.145354185835</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="3" t="s">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="3">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
         <v>2019</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>33233.670653173875</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="3" t="s">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="3">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
         <v>2018</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>27878.068077276908</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
         <v>2019</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>27292.239727077587</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
         <v>2020</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>39481.370745170199</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="3" t="s">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="3">
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
         <v>2018</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>28516.750996626801</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
         <v>2019</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>21216.076356945723</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
         <v>2020</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>45710.671573137079</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="3" t="s">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="3">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
         <v>2018</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>23027.637227844225</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
         <v>2019</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>28895.239190432381</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
         <v>2020</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>35648.574057037724</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="3" t="s">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="3">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="3">
         <v>2018</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="7">
         <v>24580.266789328431</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
         <v>2019</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <v>31163.753449862008</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="3">
         <v>2020</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G64" s="7">
         <v>22711.591536338547</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="3" t="s">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="3">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
         <v>2018</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="7">
         <v>19762.698777763177</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
         <v>2019</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G67" s="7">
         <v>25320.405215041399</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
         <v>2020</v>
       </c>
-      <c r="F68" s="7">
+      <c r="G68" s="7">
         <v>21834.607865685372</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="3" t="s">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="3">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
         <v>2018</v>
       </c>
-      <c r="F70" s="7">
+      <c r="G70" s="7">
         <v>22194.112235510584</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="3">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="3">
         <v>2019</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="7">
         <v>22211.131554737814</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="3" t="s">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="7">
         <v>37588.879231200597</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="C5:C25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17DF2AA4-3E23-4A1C-9A05-624DF54DB220}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId9"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
+          <x14:cfRule type="dataBar" id="{17DF2AA4-3E23-4A1C-9A05-624DF54DB220}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
         <x14:slicer r:id="rId10"/>
